--- a/src/sql/test.xlsx
+++ b/src/sql/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Socourse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Socourse\DE1\data_engineer1\src\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642E2751-BC78-411E-A7A9-9D611D20F107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B7D409-1EE3-4024-9CAF-D5D1222D6212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Export Worksheet" sheetId="1" r:id="rId1"/>
     <sheet name="test" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="78">
   <si>
     <t>ODATE</t>
   </si>
@@ -263,6 +264,24 @@
   </si>
   <si>
     <t>De-N</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Invoice No.</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Balance Total</t>
   </si>
 </sst>
 </file>
@@ -511,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,39 +579,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -600,14 +586,59 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2267,18 +2298,18 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
@@ -2299,19 +2330,19 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="U4" s="18" t="s">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="U4" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2324,17 +2355,17 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="U5" s="18"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="U5" s="26"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -2345,17 +2376,17 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="U6" s="18"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="U6" s="26"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
@@ -2366,124 +2397,124 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="U7" s="18"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="U7" s="26"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="U8" s="18"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="U8" s="26"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="U9" s="18"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="U9" s="26"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="U10" s="18"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="U10" s="26"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="U11" s="18"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="U11" s="26"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="U12" s="18"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="U12" s="26"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
@@ -2494,17 +2525,17 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="U13" s="18"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="U13" s="26"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
@@ -2515,17 +2546,17 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="U14" s="18"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="U14" s="26"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
@@ -2536,17 +2567,17 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="U15" s="18"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="U15" s="26"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
@@ -2557,17 +2588,17 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="U16" s="18"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="U16" s="26"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
@@ -2578,17 +2609,17 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="U17" s="18"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="U17" s="26"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
@@ -2599,17 +2630,17 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="U18" s="18"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="U18" s="26"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
@@ -2620,17 +2651,17 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="U19" s="18"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="U19" s="26"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
@@ -2641,17 +2672,17 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="U20" s="18"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="U20" s="26"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
@@ -2662,17 +2693,17 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="U21" s="18"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="U21" s="26"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
@@ -2683,17 +2714,17 @@
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="U22" s="18"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="U22" s="26"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
@@ -2704,17 +2735,17 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="U23" s="18"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="U23" s="26"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
@@ -2725,30 +2756,30 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="U24" s="18"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="U24" s="26"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="U25" s="18"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="U25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2762,16 +2793,192 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD58985B-B047-45B7-B27F-DD4FC0EEEB60}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="37">
+        <v>45922</v>
+      </c>
+      <c r="B2" s="38">
+        <v>100</v>
+      </c>
+      <c r="C2" s="38">
+        <v>26677</v>
+      </c>
+      <c r="D2" s="38">
+        <v>26677</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="37">
+        <v>45923</v>
+      </c>
+      <c r="B3" s="38">
+        <v>101</v>
+      </c>
+      <c r="C3" s="38">
+        <v>22627</v>
+      </c>
+      <c r="D3" s="38">
+        <v>0</v>
+      </c>
+      <c r="E3" s="38">
+        <f t="shared" ref="E3:E8" si="0">C3-D3</f>
+        <v>22627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="37">
+        <v>45966</v>
+      </c>
+      <c r="B4" s="38">
+        <v>121</v>
+      </c>
+      <c r="C4" s="38">
+        <v>21594</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0</v>
+      </c>
+      <c r="E4" s="38">
+        <f t="shared" si="0"/>
+        <v>21594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="37">
+        <v>45967</v>
+      </c>
+      <c r="B5" s="38">
+        <v>122</v>
+      </c>
+      <c r="C5" s="38">
+        <v>19824</v>
+      </c>
+      <c r="D5" s="38">
+        <v>0</v>
+      </c>
+      <c r="E5" s="38">
+        <f t="shared" si="0"/>
+        <v>19824</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="37">
+        <v>45978</v>
+      </c>
+      <c r="B6" s="38">
+        <v>129</v>
+      </c>
+      <c r="C6" s="38">
+        <v>10679</v>
+      </c>
+      <c r="D6" s="38">
+        <v>0</v>
+      </c>
+      <c r="E6" s="38">
+        <f t="shared" si="0"/>
+        <v>10679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="37">
+        <v>45990</v>
+      </c>
+      <c r="B7" s="38">
+        <v>133</v>
+      </c>
+      <c r="C7" s="38">
+        <v>27711</v>
+      </c>
+      <c r="D7" s="38">
+        <v>0</v>
+      </c>
+      <c r="E7" s="38">
+        <f t="shared" si="0"/>
+        <v>27711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="37">
+        <v>45990</v>
+      </c>
+      <c r="B8" s="38">
+        <v>134</v>
+      </c>
+      <c r="C8" s="38">
+        <v>27774</v>
+      </c>
+      <c r="D8" s="38">
+        <v>0</v>
+      </c>
+      <c r="E8" s="38">
+        <f t="shared" si="0"/>
+        <v>27774</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40">
+        <f>SUM(E2:E8)</f>
+        <v>130209</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A803B1B-5479-413D-AEC2-AF3ECABF615A}">
   <dimension ref="C4:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="8.88671875" style="34"/>
+    <col min="3" max="4" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:22" x14ac:dyDescent="0.3">
@@ -2794,61 +3001,61 @@
       </c>
     </row>
     <row r="7" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C7" s="35">
+      <c r="C7" s="23">
         <v>30</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="23">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="K8" s="31">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="K8" s="20">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="18">
         <v>52</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="21">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="33" t="s">
+      <c r="L12" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="N12" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2856,38 +3063,38 @@
       <c r="L13">
         <v>60000</v>
       </c>
-      <c r="Q13" s="17" t="s">
+      <c r="Q13" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
     </row>
     <row r="21" spans="13:18" x14ac:dyDescent="0.3">
       <c r="M21" t="s">
